--- a/ds/sort1/recursion graph.xlsx
+++ b/ds/sort1/recursion graph.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\Google Drive\Hunter\SUM\work_csci70900-vmiller77\ds\sort1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{015807F1-E95C-4B8F-B21C-FC807832562E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5658A37-6881-477E-A83C-0D47A1BC6FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20475" yWindow="1530" windowWidth="15090" windowHeight="15600" xr2:uid="{1D028378-D6F6-482E-99C3-28B5269463AD}"/>
+    <workbookView xWindow="13710" yWindow="0" windowWidth="15090" windowHeight="15600" xr2:uid="{1D028378-D6F6-482E-99C3-28B5269463AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Problem</t>
   </si>
@@ -88,6 +88,21 @@
   </si>
   <si>
     <t>bin(left), bin(right)</t>
+  </si>
+  <si>
+    <t>merge</t>
+  </si>
+  <si>
+    <t>just return</t>
+  </si>
+  <si>
+    <t>maze</t>
+  </si>
+  <si>
+    <t>at exit, at dead end, at visited</t>
+  </si>
+  <si>
+    <t>solve(unvisited neighbors)</t>
   </si>
 </sst>
 </file>
@@ -138,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -146,6 +161,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64ABD75E-B5B1-4A83-9F51-306131D554E7}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,7 +545,9 @@
       <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -538,7 +559,21 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
